--- a/ProjectPlan/Timeline_Gantt_Chart.xlsx
+++ b/ProjectPlan/Timeline_Gantt_Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22193596-E67A-40B3-B958-9CB38D2145C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC20DAA-72EB-49CB-BEC2-B4EFDA37A2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1194,10 +1194,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="12" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1206,10 +1206,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="12" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
@@ -1224,10 +1224,10 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="12" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="1" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="12" applyFill="1" applyBorder="1">
@@ -1418,42 +1418,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="26" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="12" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="26" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="12" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2035,27 +2034,27 @@
   </sheetPr>
   <dimension ref="A1:DA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="47.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.53515625" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" customWidth="1"/>
+    <col min="5" max="5" width="10.4609375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" customWidth="1"/>
+    <col min="7" max="7" width="7.84375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="105" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="1"/>
@@ -2065,597 +2064,592 @@
       <c r="G1" s="4"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="128" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="132"/>
       <c r="H2" s="36"/>
     </row>
-    <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="128" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="134">
+      <c r="E3" s="133">
         <f>DATE(2023, 1, 23)</f>
         <v>44949</v>
       </c>
-      <c r="F3" s="134"/>
+      <c r="F3" s="133"/>
     </row>
-    <row r="4" spans="1:105" s="123" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:105" s="123" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="136">
+      <c r="D4" s="135"/>
+      <c r="E4" s="130">
         <v>1</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="126">
+      <c r="G4" s="129"/>
+      <c r="H4" s="131">
         <f>H5</f>
         <v>44949</v>
       </c>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126">
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131">
         <f>O5</f>
         <v>44956</v>
       </c>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126">
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131">
         <f>V5</f>
         <v>44963</v>
       </c>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126">
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131">
         <f>AC5</f>
         <v>44970</v>
       </c>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126">
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131">
         <f>AJ5</f>
         <v>44977</v>
       </c>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126">
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131">
         <f>AQ5</f>
         <v>44984</v>
       </c>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="126">
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="131"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="131">
         <f>AX5</f>
         <v>44991</v>
       </c>
-      <c r="AY4" s="126"/>
-      <c r="AZ4" s="126"/>
-      <c r="BA4" s="126"/>
-      <c r="BB4" s="126"/>
-      <c r="BC4" s="126"/>
-      <c r="BD4" s="126"/>
-      <c r="BE4" s="126">
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="131"/>
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="131">
         <f>BE5</f>
         <v>44998</v>
       </c>
-      <c r="BF4" s="126"/>
-      <c r="BG4" s="126"/>
-      <c r="BH4" s="126"/>
-      <c r="BI4" s="126"/>
-      <c r="BJ4" s="126"/>
-      <c r="BK4" s="126"/>
-      <c r="BL4" s="126">
+      <c r="BF4" s="131"/>
+      <c r="BG4" s="131"/>
+      <c r="BH4" s="131"/>
+      <c r="BI4" s="131"/>
+      <c r="BJ4" s="131"/>
+      <c r="BK4" s="131"/>
+      <c r="BL4" s="131">
         <f t="shared" ref="BL4" si="0">BL5</f>
         <v>45005</v>
       </c>
-      <c r="BM4" s="126"/>
-      <c r="BN4" s="126"/>
-      <c r="BO4" s="126"/>
-      <c r="BP4" s="126"/>
-      <c r="BQ4" s="126"/>
-      <c r="BR4" s="126"/>
-      <c r="BS4" s="126">
+      <c r="BM4" s="131"/>
+      <c r="BN4" s="131"/>
+      <c r="BO4" s="131"/>
+      <c r="BP4" s="131"/>
+      <c r="BQ4" s="131"/>
+      <c r="BR4" s="131"/>
+      <c r="BS4" s="131">
         <f t="shared" ref="BS4" si="1">BS5</f>
         <v>45012</v>
       </c>
-      <c r="BT4" s="126"/>
-      <c r="BU4" s="126"/>
-      <c r="BV4" s="126"/>
-      <c r="BW4" s="126"/>
-      <c r="BX4" s="126"/>
-      <c r="BY4" s="126"/>
-      <c r="BZ4" s="126">
+      <c r="BT4" s="131"/>
+      <c r="BU4" s="131"/>
+      <c r="BV4" s="131"/>
+      <c r="BW4" s="131"/>
+      <c r="BX4" s="131"/>
+      <c r="BY4" s="131"/>
+      <c r="BZ4" s="131">
         <f t="shared" ref="BZ4" si="2">BZ5</f>
         <v>45019</v>
       </c>
-      <c r="CA4" s="126"/>
-      <c r="CB4" s="126"/>
-      <c r="CC4" s="126"/>
-      <c r="CD4" s="126"/>
-      <c r="CE4" s="126"/>
-      <c r="CF4" s="126"/>
-      <c r="CG4" s="126">
+      <c r="CA4" s="131"/>
+      <c r="CB4" s="131"/>
+      <c r="CC4" s="131"/>
+      <c r="CD4" s="131"/>
+      <c r="CE4" s="131"/>
+      <c r="CF4" s="131"/>
+      <c r="CG4" s="131">
         <f t="shared" ref="CG4" si="3">CG5</f>
         <v>45026</v>
       </c>
-      <c r="CH4" s="126"/>
-      <c r="CI4" s="126"/>
-      <c r="CJ4" s="126"/>
-      <c r="CK4" s="126"/>
-      <c r="CL4" s="126"/>
-      <c r="CM4" s="126"/>
-      <c r="CN4" s="126">
+      <c r="CH4" s="131"/>
+      <c r="CI4" s="131"/>
+      <c r="CJ4" s="131"/>
+      <c r="CK4" s="131"/>
+      <c r="CL4" s="131"/>
+      <c r="CM4" s="131"/>
+      <c r="CN4" s="131">
         <f t="shared" ref="CN4" si="4">CN5</f>
         <v>45033</v>
       </c>
-      <c r="CO4" s="126"/>
-      <c r="CP4" s="126"/>
-      <c r="CQ4" s="126"/>
-      <c r="CR4" s="126"/>
-      <c r="CS4" s="126"/>
-      <c r="CT4" s="126"/>
-      <c r="CU4" s="126">
+      <c r="CO4" s="131"/>
+      <c r="CP4" s="131"/>
+      <c r="CQ4" s="131"/>
+      <c r="CR4" s="131"/>
+      <c r="CS4" s="131"/>
+      <c r="CT4" s="131"/>
+      <c r="CU4" s="131">
         <f t="shared" ref="CU4" si="5">CU5</f>
         <v>45040</v>
       </c>
-      <c r="CV4" s="126"/>
-      <c r="CW4" s="126"/>
-      <c r="CX4" s="126"/>
-      <c r="CY4" s="126"/>
-      <c r="CZ4" s="126"/>
-      <c r="DA4" s="126"/>
+      <c r="CV4" s="131"/>
+      <c r="CW4" s="131"/>
+      <c r="CX4" s="131"/>
+      <c r="CY4" s="131"/>
+      <c r="CZ4" s="131"/>
+      <c r="DA4" s="131"/>
     </row>
-    <row r="5" spans="1:105" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:105" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="128">
+      <c r="G5" s="129"/>
+      <c r="H5" s="124">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44949</v>
       </c>
-      <c r="I5" s="128">
+      <c r="I5" s="124">
         <f>H5+1</f>
         <v>44950</v>
       </c>
-      <c r="J5" s="128">
+      <c r="J5" s="124">
         <f t="shared" ref="J5:AW5" si="6">I5+1</f>
         <v>44951</v>
       </c>
-      <c r="K5" s="128">
+      <c r="K5" s="124">
         <f t="shared" si="6"/>
         <v>44952</v>
       </c>
-      <c r="L5" s="128">
+      <c r="L5" s="124">
         <f t="shared" si="6"/>
         <v>44953</v>
       </c>
-      <c r="M5" s="128">
+      <c r="M5" s="124">
         <f t="shared" si="6"/>
         <v>44954</v>
       </c>
-      <c r="N5" s="128">
+      <c r="N5" s="124">
         <f t="shared" si="6"/>
         <v>44955</v>
       </c>
-      <c r="O5" s="128">
+      <c r="O5" s="124">
         <f>N5+1</f>
         <v>44956</v>
       </c>
-      <c r="P5" s="128">
+      <c r="P5" s="124">
         <f>O5+1</f>
         <v>44957</v>
       </c>
-      <c r="Q5" s="128">
+      <c r="Q5" s="124">
         <f t="shared" si="6"/>
         <v>44958</v>
       </c>
-      <c r="R5" s="128">
+      <c r="R5" s="124">
         <f t="shared" si="6"/>
         <v>44959</v>
       </c>
-      <c r="S5" s="128">
+      <c r="S5" s="124">
         <f t="shared" si="6"/>
         <v>44960</v>
       </c>
-      <c r="T5" s="128">
+      <c r="T5" s="124">
         <f t="shared" si="6"/>
         <v>44961</v>
       </c>
-      <c r="U5" s="128">
+      <c r="U5" s="124">
         <f t="shared" si="6"/>
         <v>44962</v>
       </c>
-      <c r="V5" s="128">
+      <c r="V5" s="124">
         <f>U5+1</f>
         <v>44963</v>
       </c>
-      <c r="W5" s="128">
+      <c r="W5" s="124">
         <f>V5+1</f>
         <v>44964</v>
       </c>
-      <c r="X5" s="128">
+      <c r="X5" s="124">
         <f t="shared" si="6"/>
         <v>44965</v>
       </c>
-      <c r="Y5" s="128">
+      <c r="Y5" s="124">
         <f t="shared" si="6"/>
         <v>44966</v>
       </c>
-      <c r="Z5" s="128">
+      <c r="Z5" s="124">
         <f t="shared" si="6"/>
         <v>44967</v>
       </c>
-      <c r="AA5" s="128">
+      <c r="AA5" s="124">
         <f t="shared" si="6"/>
         <v>44968</v>
       </c>
-      <c r="AB5" s="128">
+      <c r="AB5" s="124">
         <f t="shared" si="6"/>
         <v>44969</v>
       </c>
-      <c r="AC5" s="128">
+      <c r="AC5" s="124">
         <f>AB5+1</f>
         <v>44970</v>
       </c>
-      <c r="AD5" s="128">
+      <c r="AD5" s="124">
         <f>AC5+1</f>
         <v>44971</v>
       </c>
-      <c r="AE5" s="128">
+      <c r="AE5" s="124">
         <f t="shared" si="6"/>
         <v>44972</v>
       </c>
-      <c r="AF5" s="128">
+      <c r="AF5" s="124">
         <f t="shared" si="6"/>
         <v>44973</v>
       </c>
-      <c r="AG5" s="128">
+      <c r="AG5" s="124">
         <f t="shared" si="6"/>
         <v>44974</v>
       </c>
-      <c r="AH5" s="128">
+      <c r="AH5" s="124">
         <f t="shared" si="6"/>
         <v>44975</v>
       </c>
-      <c r="AI5" s="128">
+      <c r="AI5" s="124">
         <f t="shared" si="6"/>
         <v>44976</v>
       </c>
-      <c r="AJ5" s="128">
+      <c r="AJ5" s="124">
         <f>AI5+1</f>
         <v>44977</v>
       </c>
-      <c r="AK5" s="128">
+      <c r="AK5" s="124">
         <f>AJ5+1</f>
         <v>44978</v>
       </c>
-      <c r="AL5" s="128">
+      <c r="AL5" s="124">
         <f t="shared" si="6"/>
         <v>44979</v>
       </c>
-      <c r="AM5" s="128">
+      <c r="AM5" s="124">
         <f t="shared" si="6"/>
         <v>44980</v>
       </c>
-      <c r="AN5" s="128">
+      <c r="AN5" s="124">
         <f t="shared" si="6"/>
         <v>44981</v>
       </c>
-      <c r="AO5" s="128">
+      <c r="AO5" s="124">
         <f t="shared" si="6"/>
         <v>44982</v>
       </c>
-      <c r="AP5" s="128">
+      <c r="AP5" s="124">
         <f t="shared" si="6"/>
         <v>44983</v>
       </c>
-      <c r="AQ5" s="128">
+      <c r="AQ5" s="124">
         <f>AP5+1</f>
         <v>44984</v>
       </c>
-      <c r="AR5" s="128">
+      <c r="AR5" s="124">
         <f>AQ5+1</f>
         <v>44985</v>
       </c>
-      <c r="AS5" s="128">
+      <c r="AS5" s="124">
         <f t="shared" si="6"/>
         <v>44986</v>
       </c>
-      <c r="AT5" s="128">
+      <c r="AT5" s="124">
         <f t="shared" si="6"/>
         <v>44987</v>
       </c>
-      <c r="AU5" s="128">
+      <c r="AU5" s="124">
         <f t="shared" si="6"/>
         <v>44988</v>
       </c>
-      <c r="AV5" s="128">
+      <c r="AV5" s="124">
         <f t="shared" si="6"/>
         <v>44989</v>
       </c>
-      <c r="AW5" s="128">
+      <c r="AW5" s="124">
         <f t="shared" si="6"/>
         <v>44990</v>
       </c>
-      <c r="AX5" s="128">
+      <c r="AX5" s="124">
         <f>AW5+1</f>
         <v>44991</v>
       </c>
-      <c r="AY5" s="128">
+      <c r="AY5" s="124">
         <f>AX5+1</f>
         <v>44992</v>
       </c>
-      <c r="AZ5" s="128">
+      <c r="AZ5" s="124">
         <f t="shared" ref="AZ5:BD5" si="7">AY5+1</f>
         <v>44993</v>
       </c>
-      <c r="BA5" s="128">
+      <c r="BA5" s="124">
         <f t="shared" si="7"/>
         <v>44994</v>
       </c>
-      <c r="BB5" s="128">
+      <c r="BB5" s="124">
         <f t="shared" si="7"/>
         <v>44995</v>
       </c>
-      <c r="BC5" s="128">
+      <c r="BC5" s="124">
         <f t="shared" si="7"/>
         <v>44996</v>
       </c>
-      <c r="BD5" s="128">
+      <c r="BD5" s="124">
         <f t="shared" si="7"/>
         <v>44997</v>
       </c>
-      <c r="BE5" s="128">
+      <c r="BE5" s="124">
         <f>BD5+1</f>
         <v>44998</v>
       </c>
-      <c r="BF5" s="128">
+      <c r="BF5" s="124">
         <f>BE5+1</f>
         <v>44999</v>
       </c>
-      <c r="BG5" s="128">
+      <c r="BG5" s="124">
         <f t="shared" ref="BG5:BK5" si="8">BF5+1</f>
         <v>45000</v>
       </c>
-      <c r="BH5" s="128">
+      <c r="BH5" s="124">
         <f t="shared" si="8"/>
         <v>45001</v>
       </c>
-      <c r="BI5" s="128">
+      <c r="BI5" s="124">
         <f t="shared" si="8"/>
         <v>45002</v>
       </c>
-      <c r="BJ5" s="128">
+      <c r="BJ5" s="124">
         <f t="shared" si="8"/>
         <v>45003</v>
       </c>
-      <c r="BK5" s="128">
+      <c r="BK5" s="124">
         <f t="shared" si="8"/>
         <v>45004</v>
       </c>
-      <c r="BL5" s="128">
+      <c r="BL5" s="124">
         <f t="shared" ref="BL5" si="9">BK5+1</f>
         <v>45005</v>
       </c>
-      <c r="BM5" s="128">
+      <c r="BM5" s="124">
         <f t="shared" ref="BM5" si="10">BL5+1</f>
         <v>45006</v>
       </c>
-      <c r="BN5" s="128">
+      <c r="BN5" s="124">
         <f t="shared" ref="BN5" si="11">BM5+1</f>
         <v>45007</v>
       </c>
-      <c r="BO5" s="128">
+      <c r="BO5" s="124">
         <f t="shared" ref="BO5" si="12">BN5+1</f>
         <v>45008</v>
       </c>
-      <c r="BP5" s="128">
+      <c r="BP5" s="124">
         <f t="shared" ref="BP5" si="13">BO5+1</f>
         <v>45009</v>
       </c>
-      <c r="BQ5" s="128">
+      <c r="BQ5" s="124">
         <f t="shared" ref="BQ5" si="14">BP5+1</f>
         <v>45010</v>
       </c>
-      <c r="BR5" s="128">
+      <c r="BR5" s="124">
         <f t="shared" ref="BR5" si="15">BQ5+1</f>
         <v>45011</v>
       </c>
-      <c r="BS5" s="128">
+      <c r="BS5" s="124">
         <f t="shared" ref="BS5" si="16">BR5+1</f>
         <v>45012</v>
       </c>
-      <c r="BT5" s="128">
+      <c r="BT5" s="124">
         <f t="shared" ref="BT5" si="17">BS5+1</f>
         <v>45013</v>
       </c>
-      <c r="BU5" s="128">
+      <c r="BU5" s="124">
         <f t="shared" ref="BU5" si="18">BT5+1</f>
         <v>45014</v>
       </c>
-      <c r="BV5" s="128">
+      <c r="BV5" s="124">
         <f t="shared" ref="BV5" si="19">BU5+1</f>
         <v>45015</v>
       </c>
-      <c r="BW5" s="128">
+      <c r="BW5" s="124">
         <f t="shared" ref="BW5" si="20">BV5+1</f>
         <v>45016</v>
       </c>
-      <c r="BX5" s="128">
+      <c r="BX5" s="124">
         <f t="shared" ref="BX5" si="21">BW5+1</f>
         <v>45017</v>
       </c>
-      <c r="BY5" s="128">
+      <c r="BY5" s="124">
         <f t="shared" ref="BY5" si="22">BX5+1</f>
         <v>45018</v>
       </c>
-      <c r="BZ5" s="128">
+      <c r="BZ5" s="124">
         <f>BY5+1</f>
         <v>45019</v>
       </c>
-      <c r="CA5" s="128">
+      <c r="CA5" s="124">
         <f t="shared" ref="CA5" si="23">BZ5+1</f>
         <v>45020</v>
       </c>
-      <c r="CB5" s="128">
+      <c r="CB5" s="124">
         <f t="shared" ref="CB5" si="24">CA5+1</f>
         <v>45021</v>
       </c>
-      <c r="CC5" s="128">
+      <c r="CC5" s="124">
         <f t="shared" ref="CC5" si="25">CB5+1</f>
         <v>45022</v>
       </c>
-      <c r="CD5" s="128">
+      <c r="CD5" s="124">
         <f t="shared" ref="CD5" si="26">CC5+1</f>
         <v>45023</v>
       </c>
-      <c r="CE5" s="128">
+      <c r="CE5" s="124">
         <f t="shared" ref="CE5" si="27">CD5+1</f>
         <v>45024</v>
       </c>
-      <c r="CF5" s="128">
+      <c r="CF5" s="124">
         <f>CE5+1</f>
         <v>45025</v>
       </c>
-      <c r="CG5" s="128">
+      <c r="CG5" s="124">
         <f>CF5+1</f>
         <v>45026</v>
       </c>
-      <c r="CH5" s="128">
+      <c r="CH5" s="124">
         <f t="shared" ref="CH5" si="28">CG5+1</f>
         <v>45027</v>
       </c>
-      <c r="CI5" s="128">
+      <c r="CI5" s="124">
         <f t="shared" ref="CI5" si="29">CH5+1</f>
         <v>45028</v>
       </c>
-      <c r="CJ5" s="128">
+      <c r="CJ5" s="124">
         <f t="shared" ref="CJ5" si="30">CI5+1</f>
         <v>45029</v>
       </c>
-      <c r="CK5" s="128">
+      <c r="CK5" s="124">
         <f t="shared" ref="CK5" si="31">CJ5+1</f>
         <v>45030</v>
       </c>
-      <c r="CL5" s="128">
+      <c r="CL5" s="124">
         <f t="shared" ref="CL5" si="32">CK5+1</f>
         <v>45031</v>
       </c>
-      <c r="CM5" s="128">
+      <c r="CM5" s="124">
         <f>CL5+1</f>
         <v>45032</v>
       </c>
-      <c r="CN5" s="128">
+      <c r="CN5" s="124">
         <f>CM5+1</f>
         <v>45033</v>
       </c>
-      <c r="CO5" s="128">
+      <c r="CO5" s="124">
         <f t="shared" ref="CO5" si="33">CN5+1</f>
         <v>45034</v>
       </c>
-      <c r="CP5" s="128">
+      <c r="CP5" s="124">
         <f t="shared" ref="CP5" si="34">CO5+1</f>
         <v>45035</v>
       </c>
-      <c r="CQ5" s="128">
+      <c r="CQ5" s="124">
         <f t="shared" ref="CQ5" si="35">CP5+1</f>
         <v>45036</v>
       </c>
-      <c r="CR5" s="128">
+      <c r="CR5" s="124">
         <f t="shared" ref="CR5" si="36">CQ5+1</f>
         <v>45037</v>
       </c>
-      <c r="CS5" s="128">
+      <c r="CS5" s="124">
         <f t="shared" ref="CS5" si="37">CR5+1</f>
         <v>45038</v>
       </c>
-      <c r="CT5" s="128">
+      <c r="CT5" s="124">
         <f t="shared" ref="CT5" si="38">CS5+1</f>
         <v>45039</v>
       </c>
-      <c r="CU5" s="128">
+      <c r="CU5" s="124">
         <f t="shared" ref="CU5" si="39">CT5+1</f>
         <v>45040</v>
       </c>
-      <c r="CV5" s="128">
+      <c r="CV5" s="124">
         <f t="shared" ref="CV5" si="40">CU5+1</f>
         <v>45041</v>
       </c>
-      <c r="CW5" s="128">
+      <c r="CW5" s="124">
         <f t="shared" ref="CW5" si="41">CV5+1</f>
         <v>45042</v>
       </c>
-      <c r="CX5" s="128">
+      <c r="CX5" s="124">
         <f t="shared" ref="CX5" si="42">CW5+1</f>
         <v>45043</v>
       </c>
-      <c r="CY5" s="128">
+      <c r="CY5" s="124">
         <f t="shared" ref="CY5" si="43">CX5+1</f>
         <v>45044</v>
       </c>
-      <c r="CZ5" s="128">
+      <c r="CZ5" s="124">
         <f t="shared" ref="CZ5" si="44">CY5+1</f>
         <v>45045</v>
       </c>
-      <c r="DA5" s="128">
+      <c r="DA5" s="124">
         <f t="shared" ref="DA5" si="45">CZ5+1</f>
         <v>45046</v>
       </c>
     </row>
-    <row r="6" spans="1:105" s="121" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:105" s="121" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="116" t="s">
         <v>8</v>
       </c>
@@ -3070,7 +3064,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:105" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:105" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
@@ -3137,7 +3131,7 @@
       <c r="BJ7" s="39"/>
       <c r="BK7" s="39"/>
     </row>
-    <row r="8" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>15</v>
       </c>
@@ -3251,7 +3245,7 @@
       <c r="CZ8" s="45"/>
       <c r="DA8" s="46"/>
     </row>
-    <row r="9" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
@@ -3375,7 +3369,7 @@
       <c r="CZ9" s="17"/>
       <c r="DA9" s="50"/>
     </row>
-    <row r="10" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
@@ -3499,7 +3493,7 @@
       <c r="CZ10" s="17"/>
       <c r="DA10" s="50"/>
     </row>
-    <row r="11" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="32"/>
       <c r="B11" s="47" t="s">
         <v>47</v>
@@ -3621,7 +3615,7 @@
       <c r="CZ11" s="17"/>
       <c r="DA11" s="50"/>
     </row>
-    <row r="12" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="31"/>
       <c r="B12" s="47" t="s">
         <v>43</v>
@@ -3743,7 +3737,7 @@
       <c r="CZ12" s="17"/>
       <c r="DA12" s="50"/>
     </row>
-    <row r="13" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="31"/>
       <c r="B13" s="47" t="s">
         <v>42</v>
@@ -3865,7 +3859,7 @@
       <c r="CZ13" s="17"/>
       <c r="DA13" s="50"/>
     </row>
-    <row r="14" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="31"/>
       <c r="B14" s="72" t="s">
         <v>62</v>
@@ -3987,7 +3981,7 @@
       <c r="CZ14" s="17"/>
       <c r="DA14" s="50"/>
     </row>
-    <row r="15" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
@@ -4101,7 +4095,7 @@
       <c r="CZ15" s="17"/>
       <c r="DA15" s="50"/>
     </row>
-    <row r="16" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="32"/>
       <c r="B16" s="87" t="s">
         <v>49</v>
@@ -4223,7 +4217,7 @@
       <c r="CZ16" s="17"/>
       <c r="DA16" s="50"/>
     </row>
-    <row r="17" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="31"/>
       <c r="B17" s="54" t="s">
         <v>61</v>
@@ -4345,7 +4339,7 @@
       <c r="CZ17" s="17"/>
       <c r="DA17" s="50"/>
     </row>
-    <row r="18" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="31"/>
       <c r="B18" s="51" t="s">
         <v>50</v>
@@ -4354,7 +4348,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="9">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="53">
         <f>E16+3</f>
@@ -4467,7 +4461,7 @@
       <c r="CZ18" s="17"/>
       <c r="DA18" s="50"/>
     </row>
-    <row r="19" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="31"/>
       <c r="B19" s="51" t="s">
         <v>53</v>
@@ -4476,7 +4470,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="9">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E19" s="53">
         <f>E16+7</f>
@@ -4589,7 +4583,7 @@
       <c r="CZ19" s="17"/>
       <c r="DA19" s="50"/>
     </row>
-    <row r="20" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="31"/>
       <c r="B20" s="51" t="s">
         <v>57</v>
@@ -4598,7 +4592,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="9">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E20" s="53">
         <f>E16+8</f>
@@ -4711,7 +4705,7 @@
       <c r="CZ20" s="17"/>
       <c r="DA20" s="50"/>
     </row>
-    <row r="21" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="31"/>
       <c r="B21" s="51" t="s">
         <v>58</v>
@@ -4720,7 +4714,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="9">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="E21" s="53">
         <f>E16+8</f>
@@ -4833,7 +4827,7 @@
       <c r="CZ21" s="17"/>
       <c r="DA21" s="50"/>
     </row>
-    <row r="22" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="51" t="s">
         <v>59</v>
@@ -4842,7 +4836,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="9">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="53">
         <f>E16+9</f>
@@ -4955,7 +4949,7 @@
       <c r="CZ22" s="17"/>
       <c r="DA22" s="50"/>
     </row>
-    <row r="23" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="31"/>
       <c r="B23" s="51" t="s">
         <v>60</v>
@@ -4964,7 +4958,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E23" s="53">
         <f>F21</f>
@@ -5077,7 +5071,7 @@
       <c r="CZ23" s="17"/>
       <c r="DA23" s="50"/>
     </row>
-    <row r="24" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="31"/>
       <c r="B24" s="51" t="s">
         <v>68</v>
@@ -5086,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="53">
         <f>E23+3</f>
@@ -5199,7 +5193,7 @@
       <c r="CZ24" s="17"/>
       <c r="DA24" s="50"/>
     </row>
-    <row r="25" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="31"/>
       <c r="B25" s="51" t="s">
         <v>70</v>
@@ -5208,7 +5202,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="53">
         <f>E24+3</f>
@@ -5321,7 +5315,7 @@
       <c r="CZ25" s="17"/>
       <c r="DA25" s="50"/>
     </row>
-    <row r="26" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="31"/>
       <c r="B26" s="55" t="s">
         <v>63</v>
@@ -5443,7 +5437,7 @@
       <c r="CZ26" s="17"/>
       <c r="DA26" s="50"/>
     </row>
-    <row r="27" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="31"/>
       <c r="B27" s="56" t="s">
         <v>66</v>
@@ -5565,7 +5559,7 @@
       <c r="CZ27" s="17"/>
       <c r="DA27" s="50"/>
     </row>
-    <row r="28" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="31"/>
       <c r="B28" s="55" t="s">
         <v>67</v>
@@ -5687,7 +5681,7 @@
       <c r="CZ28" s="17"/>
       <c r="DA28" s="50"/>
     </row>
-    <row r="29" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="31"/>
       <c r="B29" s="55" t="s">
         <v>71</v>
@@ -5809,7 +5803,7 @@
       <c r="CZ29" s="17"/>
       <c r="DA29" s="50"/>
     </row>
-    <row r="30" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="31"/>
       <c r="B30" s="55" t="s">
         <v>69</v>
@@ -5929,7 +5923,7 @@
       <c r="CZ30" s="17"/>
       <c r="DA30" s="50"/>
     </row>
-    <row r="31" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="31"/>
       <c r="B31" s="55" t="s">
         <v>77</v>
@@ -6051,7 +6045,7 @@
       <c r="CZ31" s="17"/>
       <c r="DA31" s="50"/>
     </row>
-    <row r="32" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
       <c r="B32" s="93" t="s">
         <v>79</v>
@@ -6173,7 +6167,7 @@
       <c r="CZ32" s="17"/>
       <c r="DA32" s="50"/>
     </row>
-    <row r="33" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
         <v>19</v>
       </c>
@@ -6287,7 +6281,7 @@
       <c r="CZ33" s="17"/>
       <c r="DA33" s="50"/>
     </row>
-    <row r="34" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="31"/>
       <c r="B34" s="103" t="s">
         <v>80</v>
@@ -6409,7 +6403,7 @@
       <c r="CZ34" s="17"/>
       <c r="DA34" s="50"/>
     </row>
-    <row r="35" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="31"/>
       <c r="B35" s="57" t="s">
         <v>73</v>
@@ -6531,7 +6525,7 @@
       <c r="CZ35" s="17"/>
       <c r="DA35" s="50"/>
     </row>
-    <row r="36" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="31"/>
       <c r="B36" s="57" t="s">
         <v>76</v>
@@ -6540,7 +6534,7 @@
         <v>46</v>
       </c>
       <c r="D36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="59">
         <f>E34-5</f>
@@ -6653,7 +6647,7 @@
       <c r="CZ36" s="17"/>
       <c r="DA36" s="50"/>
     </row>
-    <row r="37" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="31"/>
       <c r="B37" s="57" t="s">
         <v>74</v>
@@ -6662,7 +6656,7 @@
         <v>65</v>
       </c>
       <c r="D37" s="10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E37" s="59">
         <f>E13-1</f>
@@ -6775,7 +6769,7 @@
       <c r="CZ37" s="17"/>
       <c r="DA37" s="50"/>
     </row>
-    <row r="38" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31"/>
       <c r="B38" s="60" t="s">
         <v>75</v>
@@ -6784,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="62">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E38" s="63">
         <f>F32</f>
@@ -6897,7 +6891,7 @@
       <c r="CZ38" s="64"/>
       <c r="DA38" s="65"/>
     </row>
-    <row r="39" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="31" t="s">
         <v>20</v>
       </c>
@@ -7009,7 +7003,7 @@
       <c r="CZ39" s="38"/>
       <c r="DA39" s="38"/>
     </row>
-    <row r="40" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:105" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="32" t="s">
         <v>21</v>
       </c>
@@ -7123,15 +7117,19 @@
       <c r="CZ40" s="19"/>
       <c r="DA40" s="19"/>
     </row>
-    <row r="42" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="6"/>
       <c r="F42" s="33"/>
     </row>
-    <row r="43" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="BL4:BR4"/>
@@ -7145,10 +7143,6 @@
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
@@ -7223,86 +7217,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="87.08984375" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="87.07421875" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9.07421875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="24" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="21" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="21" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="24" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A8" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="58.3" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="21" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="21" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="24" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="21" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="21" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="24" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A14" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>35</v>
       </c>

--- a/ProjectPlan/Timeline_Gantt_Chart.xlsx
+++ b/ProjectPlan/Timeline_Gantt_Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC20DAA-72EB-49CB-BEC2-B4EFDA37A2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1D72D-99E7-4D20-A0D3-C8FFCC287939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1439,6 +1439,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="25" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,12 +1453,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="12" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2034,8 +2034,10 @@
   </sheetPr>
   <dimension ref="A1:DA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="T1" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2075,10 +2077,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="132"/>
+      <c r="F2" s="134"/>
       <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2092,164 +2094,164 @@
         <v>39</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="133">
+      <c r="E3" s="135">
         <f>DATE(2023, 1, 23)</f>
         <v>44949</v>
       </c>
-      <c r="F3" s="133"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:105" s="123" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="130">
         <v>1</v>
       </c>
       <c r="G4" s="129"/>
-      <c r="H4" s="131">
+      <c r="H4" s="133">
         <f>H5</f>
         <v>44949</v>
       </c>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131">
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133">
         <f>O5</f>
         <v>44956</v>
       </c>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131">
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133">
         <f>V5</f>
         <v>44963</v>
       </c>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131">
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133">
         <f>AC5</f>
         <v>44970</v>
       </c>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131">
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133">
         <f>AJ5</f>
         <v>44977</v>
       </c>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="131">
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133">
         <f>AQ5</f>
         <v>44984</v>
       </c>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="131"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131">
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="133">
         <f>AX5</f>
         <v>44991</v>
       </c>
-      <c r="AY4" s="131"/>
-      <c r="AZ4" s="131"/>
-      <c r="BA4" s="131"/>
-      <c r="BB4" s="131"/>
-      <c r="BC4" s="131"/>
-      <c r="BD4" s="131"/>
-      <c r="BE4" s="131">
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="133"/>
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="133">
         <f>BE5</f>
         <v>44998</v>
       </c>
-      <c r="BF4" s="131"/>
-      <c r="BG4" s="131"/>
-      <c r="BH4" s="131"/>
-      <c r="BI4" s="131"/>
-      <c r="BJ4" s="131"/>
-      <c r="BK4" s="131"/>
-      <c r="BL4" s="131">
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133">
         <f t="shared" ref="BL4" si="0">BL5</f>
         <v>45005</v>
       </c>
-      <c r="BM4" s="131"/>
-      <c r="BN4" s="131"/>
-      <c r="BO4" s="131"/>
-      <c r="BP4" s="131"/>
-      <c r="BQ4" s="131"/>
-      <c r="BR4" s="131"/>
-      <c r="BS4" s="131">
+      <c r="BM4" s="133"/>
+      <c r="BN4" s="133"/>
+      <c r="BO4" s="133"/>
+      <c r="BP4" s="133"/>
+      <c r="BQ4" s="133"/>
+      <c r="BR4" s="133"/>
+      <c r="BS4" s="133">
         <f t="shared" ref="BS4" si="1">BS5</f>
         <v>45012</v>
       </c>
-      <c r="BT4" s="131"/>
-      <c r="BU4" s="131"/>
-      <c r="BV4" s="131"/>
-      <c r="BW4" s="131"/>
-      <c r="BX4" s="131"/>
-      <c r="BY4" s="131"/>
-      <c r="BZ4" s="131">
+      <c r="BT4" s="133"/>
+      <c r="BU4" s="133"/>
+      <c r="BV4" s="133"/>
+      <c r="BW4" s="133"/>
+      <c r="BX4" s="133"/>
+      <c r="BY4" s="133"/>
+      <c r="BZ4" s="133">
         <f t="shared" ref="BZ4" si="2">BZ5</f>
         <v>45019</v>
       </c>
-      <c r="CA4" s="131"/>
-      <c r="CB4" s="131"/>
-      <c r="CC4" s="131"/>
-      <c r="CD4" s="131"/>
-      <c r="CE4" s="131"/>
-      <c r="CF4" s="131"/>
-      <c r="CG4" s="131">
+      <c r="CA4" s="133"/>
+      <c r="CB4" s="133"/>
+      <c r="CC4" s="133"/>
+      <c r="CD4" s="133"/>
+      <c r="CE4" s="133"/>
+      <c r="CF4" s="133"/>
+      <c r="CG4" s="133">
         <f t="shared" ref="CG4" si="3">CG5</f>
         <v>45026</v>
       </c>
-      <c r="CH4" s="131"/>
-      <c r="CI4" s="131"/>
-      <c r="CJ4" s="131"/>
-      <c r="CK4" s="131"/>
-      <c r="CL4" s="131"/>
-      <c r="CM4" s="131"/>
-      <c r="CN4" s="131">
+      <c r="CH4" s="133"/>
+      <c r="CI4" s="133"/>
+      <c r="CJ4" s="133"/>
+      <c r="CK4" s="133"/>
+      <c r="CL4" s="133"/>
+      <c r="CM4" s="133"/>
+      <c r="CN4" s="133">
         <f t="shared" ref="CN4" si="4">CN5</f>
         <v>45033</v>
       </c>
-      <c r="CO4" s="131"/>
-      <c r="CP4" s="131"/>
-      <c r="CQ4" s="131"/>
-      <c r="CR4" s="131"/>
-      <c r="CS4" s="131"/>
-      <c r="CT4" s="131"/>
-      <c r="CU4" s="131">
+      <c r="CO4" s="133"/>
+      <c r="CP4" s="133"/>
+      <c r="CQ4" s="133"/>
+      <c r="CR4" s="133"/>
+      <c r="CS4" s="133"/>
+      <c r="CT4" s="133"/>
+      <c r="CU4" s="133">
         <f t="shared" ref="CU4" si="5">CU5</f>
         <v>45040</v>
       </c>
-      <c r="CV4" s="131"/>
-      <c r="CW4" s="131"/>
-      <c r="CX4" s="131"/>
-      <c r="CY4" s="131"/>
-      <c r="CZ4" s="131"/>
-      <c r="DA4" s="131"/>
+      <c r="CV4" s="133"/>
+      <c r="CW4" s="133"/>
+      <c r="CX4" s="133"/>
+      <c r="CY4" s="133"/>
+      <c r="CZ4" s="133"/>
+      <c r="DA4" s="133"/>
     </row>
     <row r="5" spans="1:105" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="122" t="s">
@@ -4714,7 +4716,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E21" s="53">
         <f>E16+8</f>
@@ -4836,7 +4838,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="9">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="53">
         <f>E16+9</f>
@@ -4958,7 +4960,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="9">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E23" s="53">
         <f>F21</f>
@@ -5080,7 +5082,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="53">
         <f>E23+3</f>
@@ -5202,7 +5204,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="53">
         <f>E24+3</f>
@@ -5324,7 +5326,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="53">
         <f>E25+10</f>
@@ -7126,23 +7128,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="BS4:BY4"/>
     <mergeCell ref="BZ4:CF4"/>
     <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="CN4:CT4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">

--- a/ProjectPlan/Timeline_Gantt_Chart.xlsx
+++ b/ProjectPlan/Timeline_Gantt_Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1D72D-99E7-4D20-A0D3-C8FFCC287939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598652E8-4F13-4EFB-98F8-06C858364085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1439,20 +1439,20 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="12" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="12" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2034,10 +2034,10 @@
   </sheetPr>
   <dimension ref="A1:DA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="T1" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2077,10 +2077,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="134"/>
+      <c r="F2" s="131"/>
       <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2094,164 +2094,164 @@
         <v>39</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="135">
+      <c r="E3" s="133">
         <f>DATE(2023, 1, 23)</f>
         <v>44949</v>
       </c>
-      <c r="F3" s="135"/>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:105" s="123" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="130">
         <v>1</v>
       </c>
       <c r="G4" s="129"/>
-      <c r="H4" s="133">
+      <c r="H4" s="132">
         <f>H5</f>
         <v>44949</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133">
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132">
         <f>O5</f>
         <v>44956</v>
       </c>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133">
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132">
         <f>V5</f>
         <v>44963</v>
       </c>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133">
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132">
         <f>AC5</f>
         <v>44970</v>
       </c>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133">
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132">
         <f>AJ5</f>
         <v>44977</v>
       </c>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133">
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132">
         <f>AQ5</f>
         <v>44984</v>
       </c>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="133">
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="132">
         <f>AX5</f>
         <v>44991</v>
       </c>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="133"/>
-      <c r="BA4" s="133"/>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="133">
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="132"/>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="132">
         <f>BE5</f>
         <v>44998</v>
       </c>
-      <c r="BF4" s="133"/>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="133"/>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="133">
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="132"/>
+      <c r="BI4" s="132"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="132">
         <f t="shared" ref="BL4" si="0">BL5</f>
         <v>45005</v>
       </c>
-      <c r="BM4" s="133"/>
-      <c r="BN4" s="133"/>
-      <c r="BO4" s="133"/>
-      <c r="BP4" s="133"/>
-      <c r="BQ4" s="133"/>
-      <c r="BR4" s="133"/>
-      <c r="BS4" s="133">
+      <c r="BM4" s="132"/>
+      <c r="BN4" s="132"/>
+      <c r="BO4" s="132"/>
+      <c r="BP4" s="132"/>
+      <c r="BQ4" s="132"/>
+      <c r="BR4" s="132"/>
+      <c r="BS4" s="132">
         <f t="shared" ref="BS4" si="1">BS5</f>
         <v>45012</v>
       </c>
-      <c r="BT4" s="133"/>
-      <c r="BU4" s="133"/>
-      <c r="BV4" s="133"/>
-      <c r="BW4" s="133"/>
-      <c r="BX4" s="133"/>
-      <c r="BY4" s="133"/>
-      <c r="BZ4" s="133">
+      <c r="BT4" s="132"/>
+      <c r="BU4" s="132"/>
+      <c r="BV4" s="132"/>
+      <c r="BW4" s="132"/>
+      <c r="BX4" s="132"/>
+      <c r="BY4" s="132"/>
+      <c r="BZ4" s="132">
         <f t="shared" ref="BZ4" si="2">BZ5</f>
         <v>45019</v>
       </c>
-      <c r="CA4" s="133"/>
-      <c r="CB4" s="133"/>
-      <c r="CC4" s="133"/>
-      <c r="CD4" s="133"/>
-      <c r="CE4" s="133"/>
-      <c r="CF4" s="133"/>
-      <c r="CG4" s="133">
+      <c r="CA4" s="132"/>
+      <c r="CB4" s="132"/>
+      <c r="CC4" s="132"/>
+      <c r="CD4" s="132"/>
+      <c r="CE4" s="132"/>
+      <c r="CF4" s="132"/>
+      <c r="CG4" s="132">
         <f t="shared" ref="CG4" si="3">CG5</f>
         <v>45026</v>
       </c>
-      <c r="CH4" s="133"/>
-      <c r="CI4" s="133"/>
-      <c r="CJ4" s="133"/>
-      <c r="CK4" s="133"/>
-      <c r="CL4" s="133"/>
-      <c r="CM4" s="133"/>
-      <c r="CN4" s="133">
+      <c r="CH4" s="132"/>
+      <c r="CI4" s="132"/>
+      <c r="CJ4" s="132"/>
+      <c r="CK4" s="132"/>
+      <c r="CL4" s="132"/>
+      <c r="CM4" s="132"/>
+      <c r="CN4" s="132">
         <f t="shared" ref="CN4" si="4">CN5</f>
         <v>45033</v>
       </c>
-      <c r="CO4" s="133"/>
-      <c r="CP4" s="133"/>
-      <c r="CQ4" s="133"/>
-      <c r="CR4" s="133"/>
-      <c r="CS4" s="133"/>
-      <c r="CT4" s="133"/>
-      <c r="CU4" s="133">
+      <c r="CO4" s="132"/>
+      <c r="CP4" s="132"/>
+      <c r="CQ4" s="132"/>
+      <c r="CR4" s="132"/>
+      <c r="CS4" s="132"/>
+      <c r="CT4" s="132"/>
+      <c r="CU4" s="132">
         <f t="shared" ref="CU4" si="5">CU5</f>
         <v>45040</v>
       </c>
-      <c r="CV4" s="133"/>
-      <c r="CW4" s="133"/>
-      <c r="CX4" s="133"/>
-      <c r="CY4" s="133"/>
-      <c r="CZ4" s="133"/>
-      <c r="DA4" s="133"/>
+      <c r="CV4" s="132"/>
+      <c r="CW4" s="132"/>
+      <c r="CX4" s="132"/>
+      <c r="CY4" s="132"/>
+      <c r="CZ4" s="132"/>
+      <c r="DA4" s="132"/>
     </row>
     <row r="5" spans="1:105" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="122" t="s">
@@ -4350,7 +4350,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E18" s="53">
         <f>E16+3</f>
@@ -4838,7 +4838,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E22" s="53">
         <f>E16+9</f>
@@ -4960,7 +4960,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E23" s="53">
         <f>F21</f>
@@ -5082,7 +5082,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E24" s="53">
         <f>E23+3</f>
@@ -5204,7 +5204,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E25" s="53">
         <f>E24+3</f>
@@ -5326,7 +5326,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E26" s="53">
         <f>E25+10</f>
@@ -5448,7 +5448,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="53">
         <f>F26+10</f>
@@ -5570,7 +5570,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="53">
         <f>E27</f>
@@ -5692,7 +5692,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E29" s="53">
         <f>F28-1</f>
@@ -5814,7 +5814,7 @@
         <v>51</v>
       </c>
       <c r="D30" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="53">
         <v>45013</v>
@@ -5934,7 +5934,7 @@
         <v>78</v>
       </c>
       <c r="D31" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="53">
         <f>F30</f>
@@ -6292,7 +6292,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="105">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E34" s="106">
         <f>E23</f>
@@ -6414,7 +6414,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E35" s="59">
         <f>E22</f>
@@ -6658,7 +6658,7 @@
         <v>65</v>
       </c>
       <c r="D37" s="10">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="E37" s="59">
         <f>E13-1</f>
@@ -7128,6 +7128,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="BS4:BY4"/>
@@ -7139,12 +7145,6 @@
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="CN4:CT4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
